--- a/Universidad-20230227T013253Z-001/Universidad/U 2023-1/basesDatos/taller/tablaEntrega1.xlsx
+++ b/Universidad-20230227T013253Z-001/Universidad/U 2023-1/basesDatos/taller/tablaEntrega1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a796901c600f2a6b/Documentos/GitHub/Universidad/Universidad-20230227T013253Z-001/Universidad/U 2023-1/basesDatos/taller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexis\Documents\GitHub\Universidad\Universidad-20230227T013253Z-001\Universidad\U 2023-1\basesDatos\taller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_AD4D2F04E46CFB4ACB3E20E6CD55FA94693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72CCDD8-AD33-4712-A8BD-AC8B88B4E9E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000CB844-8C4D-4A18-80E1-1002C763F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -308,50 +308,6 @@
         <a:xfrm>
           <a:off x="11096626" y="2698750"/>
           <a:ext cx="4966434" cy="3129809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>87075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>59427</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>78536</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48F1184-590C-A5BB-3E29-7F693270409C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9993075" y="381000"/>
-          <a:ext cx="4560227" cy="4269536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,19 +585,19 @@
   <dimension ref="B2:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +617,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,7 +637,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -722,7 +678,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -757,7 +713,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -796,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -827,7 +783,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -856,7 +812,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -885,14 +841,14 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +873,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -942,7 +898,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -977,7 +933,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +961,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +976,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +987,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1051,7 +1007,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1033,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1107,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1089,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1159,7 +1115,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1143,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1215,7 +1171,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1186,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1210,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1221,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1282,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1297,7 +1253,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1314,22 +1270,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
